--- a/files/website.xlsx
+++ b/files/website.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>title</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -29,13 +32,25 @@
   </si>
   <si>
     <t>Replicability Crisis in Science?</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>Specialist course for the PhD program in Statistics at the Department of Statistical Sciences, University of Padova</t>
+  </si>
+  <si>
+    <t>https://stat-teaching.github.io/replicability-stat-unipd-phd/</t>
+  </si>
+  <si>
+    <t>https://github.com/stat-teaching/replicability-stat-unipd-phd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -46,6 +61,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,11 +81,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -304,13 +326,32 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="E2"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>